--- a/TestHorse/bin/Debug/比赛表.xlsx
+++ b/TestHorse/bin/Debug/比赛表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbda78479129d0fb/repo/TestHorse/TestHorse/bin/Debug/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbda78479129d0fb/repo/PrivateHorseRace/TestHorse/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_AD4DA82427541F7ACA7EB84EB00B292A6AE8DE0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40AE5958-0738-4A5B-8F62-57791ACCE96B}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_AD4DA82427541F7ACA7EB84EB00B292A6AE8DE0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6328080C-939C-4B03-92A9-338DBE6CB44A}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="1404" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="82">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -359,6 +359,18 @@
   </si>
   <si>
     <t>随机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港杯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙古德比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -713,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG17"/>
+  <dimension ref="A1:AG19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1234,6 +1246,43 @@
         <v>77</v>
       </c>
     </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>2000</v>
+      </c>
+      <c r="J18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>1000000</v>
+      </c>
+      <c r="H19" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestHorse/bin/Debug/比赛表.xlsx
+++ b/TestHorse/bin/Debug/比赛表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbda78479129d0fb/repo/PrivateHorseRace/TestHorse/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_AD4DA82427541F7ACA7EB84EB00B292A6AE8DE0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6328080C-939C-4B03-92A9-338DBE6CB44A}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_AD4DA82427541F7ACA7EB84EB00B292A6AE8DE0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1318401-92A7-436F-95EB-B43D141D5CE1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="84">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -371,6 +371,14 @@
   </si>
   <si>
     <t>意志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国杯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯旋门大赛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,6 +467,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -725,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1283,6 +1295,43 @@
         <v>78</v>
       </c>
     </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20">
+        <v>1949</v>
+      </c>
+      <c r="J20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>2400</v>
+      </c>
+      <c r="H21" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
